--- a/code_generate_figures/data/ranks_all_DIANN_DIA_ensemble_mv.xlsx
+++ b/code_generate_figures/data/ranks_all_DIANN_DIA_ensemble_mv.xlsx
@@ -815,43 +815,43 @@
         <v>0.785197723529412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.79793765</v>
+        <v>0.8106776</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0.845242358823529</v>
       </c>
       <c r="M2" t="n">
-        <v>0.85424015</v>
+        <v>0.8549788</v>
       </c>
       <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
         <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8</v>
       </c>
       <c r="P2" t="n">
         <v>0.865703052941176</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8698573</v>
+        <v>0.8740115</v>
       </c>
       <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="n">
         <v>16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
       </c>
       <c r="T2" t="n">
         <v>0.815274323529412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8598937</v>
+        <v>0.8731221</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -863,19 +863,19 @@
         <v>0.723713168823529</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.84012</v>
+        <v>0.8403454</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -901,58 +901,58 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.766482988235294</v>
+        <v>0.779547217647059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.76130655</v>
+        <v>0.7741565</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>0.828953170588235</v>
+        <v>0.827534229411765</v>
       </c>
       <c r="M3" t="n">
-        <v>0.82999545</v>
+        <v>0.8285036</v>
       </c>
       <c r="N3" t="n">
         <v>22</v>
       </c>
       <c r="O3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P3" t="n">
-        <v>0.848912752941176</v>
+        <v>0.841931688235294</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8521104</v>
+        <v>0.8486299</v>
       </c>
       <c r="R3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3" t="n">
         <v>33</v>
       </c>
       <c r="T3" t="n">
-        <v>0.775890941176471</v>
+        <v>0.772377282352941</v>
       </c>
       <c r="U3" t="n">
-        <v>0.82219285</v>
+        <v>0.8232423</v>
       </c>
       <c r="V3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>0.608733124705882</v>
+        <v>0.593009041176471</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8008136</v>
+        <v>0.7989908</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
@@ -964,7 +964,7 @@
         <v>26.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="4">
@@ -990,70 +990,70 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0.772255482352941</v>
+        <v>0.784025570588235</v>
       </c>
       <c r="I4" t="n">
-        <v>0.76790915</v>
+        <v>0.7805294</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>0.833276229411765</v>
+        <v>0.831011417647059</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8345763</v>
+        <v>0.8327838</v>
       </c>
       <c r="N4" t="n">
         <v>21</v>
       </c>
       <c r="O4" t="n">
+        <v>27</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.846365635294118</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.853486</v>
+      </c>
+      <c r="R4" t="n">
+        <v>31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>32</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.778272111764706</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8282167</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.608348102352941</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.8172558</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AC4" t="n">
         <v>22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.852852152941176</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8560142</v>
-      </c>
-      <c r="R4" t="n">
-        <v>24</v>
-      </c>
-      <c r="S4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.782865270588235</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.82048425</v>
-      </c>
-      <c r="V4" t="n">
-        <v>15</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.628983979411765</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.8131763</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>22.2</v>
       </c>
     </row>
     <row r="5">
@@ -1082,19 +1082,19 @@
         <v>0.740003770588235</v>
       </c>
       <c r="I5" t="n">
-        <v>0.71759435</v>
+        <v>0.6951849</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L5" t="n">
         <v>0.820975564705882</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8267334</v>
+        <v>0.8324912</v>
       </c>
       <c r="N5" t="n">
         <v>29</v>
@@ -1106,31 +1106,31 @@
         <v>0.849160105882353</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.86511075</v>
+        <v>0.8664991</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T5" t="n">
         <v>0.763004864705882</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7729913</v>
+        <v>0.7829777</v>
       </c>
       <c r="V5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="X5" t="n">
         <v>0.714398134705882</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8422416</v>
+        <v>0.8469542</v>
       </c>
       <c r="Z5" t="n">
         <v>30</v>
@@ -1139,10 +1139,10 @@
         <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="6">
@@ -1168,67 +1168,67 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.704468582352941</v>
+        <v>0.703068052941176</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68720855</v>
+        <v>0.6872071</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L6" t="n">
-        <v>0.741016805882353</v>
+        <v>0.739080447058823</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7340348</v>
+        <v>0.727614</v>
       </c>
       <c r="N6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" t="n">
         <v>46</v>
       </c>
       <c r="P6" t="n">
-        <v>0.754976158823529</v>
+        <v>0.752950464705882</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7512524</v>
+        <v>0.747803</v>
       </c>
       <c r="R6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" t="n">
-        <v>0.734999652941176</v>
+        <v>0.733917652941177</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7366866</v>
+        <v>0.7378318</v>
       </c>
       <c r="V6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W6" t="n">
         <v>49</v>
       </c>
       <c r="X6" t="n">
-        <v>0.537130826470588</v>
+        <v>0.534723808823529</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5734669</v>
+        <v>0.6088976</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB6" t="n">
-        <v>47.6</v>
+        <v>46.8</v>
       </c>
       <c r="AC6" t="n">
         <v>48</v>
@@ -1257,70 +1257,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.713668852941176</v>
+        <v>0.712178070588235</v>
       </c>
       <c r="I7" t="n">
-        <v>0.69421735</v>
+        <v>0.6939933</v>
       </c>
       <c r="J7" t="n">
         <v>43</v>
       </c>
       <c r="K7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" t="n">
-        <v>0.755323352941176</v>
+        <v>0.753362023529412</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7405359</v>
+        <v>0.7295644</v>
       </c>
       <c r="N7" t="n">
         <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" t="n">
-        <v>0.770731429411765</v>
+        <v>0.768633658823529</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75975185</v>
+        <v>0.7490432</v>
       </c>
       <c r="R7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" t="n">
         <v>45</v>
       </c>
       <c r="T7" t="n">
-        <v>0.739112188235294</v>
+        <v>0.737808076470588</v>
       </c>
       <c r="U7" t="n">
-        <v>0.75338125</v>
+        <v>0.7643911</v>
       </c>
       <c r="V7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X7" t="n">
-        <v>0.561738802352941</v>
+        <v>0.559376843529412</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.61634635</v>
+        <v>0.6373139</v>
       </c>
       <c r="Z7" t="n">
         <v>46</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="n">
-        <v>44.4</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>45.2</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="8">
@@ -1349,46 +1349,46 @@
         <v>0.771127417647059</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7813711</v>
+        <v>0.7916148</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>0.838307670588235</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8583506</v>
+        <v>0.8585324</v>
       </c>
       <c r="N8" t="n">
         <v>18</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
         <v>0.861814635294118</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.88219565</v>
+        <v>0.8889099</v>
       </c>
       <c r="R8" t="n">
         <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
         <v>0.787177617647059</v>
       </c>
       <c r="U8" t="n">
-        <v>0.80099225</v>
+        <v>0.8148069</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
@@ -1397,19 +1397,19 @@
         <v>0.72108645</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8516017</v>
+        <v>0.8653858</v>
       </c>
       <c r="Z8" t="n">
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>19.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="9">
@@ -1435,70 +1435,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.732102823529412</v>
+        <v>0.732535511764706</v>
       </c>
       <c r="I9" t="n">
-        <v>0.72481425</v>
+        <v>0.7239813</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="n">
-        <v>0.780736864705882</v>
+        <v>0.780880917647059</v>
       </c>
       <c r="M9" t="n">
-        <v>0.78271735</v>
+        <v>0.7846978</v>
       </c>
       <c r="N9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O9" t="n">
         <v>37</v>
       </c>
       <c r="P9" t="n">
-        <v>0.797319417647059</v>
+        <v>0.797501429411765</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8015352</v>
+        <v>0.8020418</v>
       </c>
       <c r="R9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S9" t="n">
+        <v>38</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.752640717647059</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7974773</v>
+      </c>
+      <c r="V9" t="n">
         <v>40</v>
       </c>
-      <c r="T9" t="n">
-        <v>0.752674758823529</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.7829819</v>
-      </c>
-      <c r="V9" t="n">
-        <v>41</v>
-      </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>0.562138697647059</v>
+        <v>0.562100303529412</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.64205795</v>
+        <v>0.7219772</v>
       </c>
       <c r="Z9" t="n">
         <v>45</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>35.4</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="10">
@@ -1524,22 +1524,22 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.737182129411765</v>
+        <v>0.737546547058823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7300037</v>
+        <v>0.72616</v>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L10" t="n">
-        <v>0.787881005882353</v>
+        <v>0.787979847058824</v>
       </c>
       <c r="M10" t="n">
-        <v>0.78923535</v>
+        <v>0.7905897</v>
       </c>
       <c r="N10" t="n">
         <v>38</v>
@@ -1548,46 +1548,46 @@
         <v>36</v>
       </c>
       <c r="P10" t="n">
-        <v>0.805976705882353</v>
+        <v>0.806009711764706</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8075117</v>
+        <v>0.8089012</v>
       </c>
       <c r="R10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" t="n">
-        <v>0.771400658823529</v>
+        <v>0.771365323529412</v>
       </c>
       <c r="U10" t="n">
-        <v>0.78938045</v>
+        <v>0.7996699</v>
       </c>
       <c r="V10" t="n">
         <v>22</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>0.609808147647059</v>
+        <v>0.609769247647059</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6811831</v>
+        <v>0.7525581</v>
       </c>
       <c r="Z10" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA10" t="n">
         <v>40</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>43</v>
       </c>
       <c r="AB10" t="n">
         <v>34.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="11">
@@ -1616,67 +1616,67 @@
         <v>0.730570976470588</v>
       </c>
       <c r="I11" t="n">
-        <v>0.72912555</v>
+        <v>0.7276801</v>
       </c>
       <c r="J11" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L11" t="n">
         <v>0.814322888235294</v>
       </c>
       <c r="M11" t="n">
-        <v>0.82415515</v>
+        <v>0.8339874</v>
       </c>
       <c r="N11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P11" t="n">
         <v>0.848151235294118</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.85912165</v>
+        <v>0.8700921</v>
       </c>
       <c r="R11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S11" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="T11" t="n">
         <v>0.767207394117647</v>
       </c>
       <c r="U11" t="n">
-        <v>0.75534835</v>
+        <v>0.7434893</v>
       </c>
       <c r="V11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W11" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X11" t="n">
         <v>0.725643978823529</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.82668545</v>
+        <v>0.8524625</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AB11" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="AC11" t="n">
-        <v>31.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="12">
@@ -1702,58 +1702,58 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.690859394117647</v>
+        <v>0.700001982352941</v>
       </c>
       <c r="I12" t="n">
-        <v>0.67581105</v>
+        <v>0.6989478</v>
       </c>
       <c r="J12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7437977</v>
+        <v>0.732853935294118</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7328743</v>
+        <v>0.7269402</v>
       </c>
       <c r="N12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O12" t="n">
         <v>47</v>
       </c>
       <c r="P12" t="n">
-        <v>0.760880935294118</v>
+        <v>0.744426452941176</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.75324415</v>
+        <v>0.7471405</v>
       </c>
       <c r="R12" t="n">
+        <v>50</v>
+      </c>
+      <c r="S12" t="n">
         <v>48</v>
       </c>
-      <c r="S12" t="n">
-        <v>46</v>
-      </c>
       <c r="T12" t="n">
-        <v>0.727540576470588</v>
+        <v>0.723297347058824</v>
       </c>
       <c r="U12" t="n">
-        <v>0.75577995</v>
+        <v>0.7504374</v>
       </c>
       <c r="V12" t="n">
         <v>49</v>
       </c>
       <c r="W12" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X12" t="n">
-        <v>0.532862714117647</v>
+        <v>0.514154917647059</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6284387</v>
+        <v>0.6289935</v>
       </c>
       <c r="Z12" t="n">
         <v>51</v>
@@ -1762,10 +1762,10 @@
         <v>49</v>
       </c>
       <c r="AB12" t="n">
-        <v>48.8</v>
+        <v>49.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>46.6</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="13">
@@ -1791,70 +1791,70 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.697549235294118</v>
+        <v>0.709491635294118</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6812789</v>
+        <v>0.7050151</v>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L13" t="n">
-        <v>0.752967488235294</v>
+        <v>0.747180064705882</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7401453</v>
+        <v>0.7384305</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O13" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P13" t="n">
-        <v>0.772805276470588</v>
+        <v>0.761103341176471</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76557215</v>
+        <v>0.7591402</v>
       </c>
       <c r="R13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S13" t="n">
         <v>43</v>
       </c>
       <c r="T13" t="n">
-        <v>0.735085041176471</v>
+        <v>0.730691705882353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7669408</v>
+        <v>0.758534</v>
       </c>
       <c r="V13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W13" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>0.551351068235294</v>
+        <v>0.533079027647059</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.63922395</v>
+        <v>0.6288341</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA13" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>45.4</v>
+        <v>46.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="14">
@@ -1883,67 +1883,67 @@
         <v>0.764400341176471</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7724225</v>
+        <v>0.7804447</v>
       </c>
       <c r="J14" t="n">
         <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>0.836940517647059</v>
       </c>
       <c r="M14" t="n">
-        <v>0.84746245</v>
+        <v>0.8579844</v>
       </c>
       <c r="N14" t="n">
         <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P14" t="n">
         <v>0.861925652941177</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.87548135</v>
+        <v>0.8846746</v>
       </c>
       <c r="R14" t="n">
         <v>19</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
         <v>0.794798011764706</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7879592</v>
+        <v>0.7811204</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="X14" t="n">
         <v>0.739359784117647</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.84962275</v>
+        <v>0.8584732</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="15">
@@ -1969,70 +1969,70 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.721895629411765</v>
+        <v>0.738447770588235</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7023569</v>
+        <v>0.7281679</v>
       </c>
       <c r="J15" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>0.781276682352941</v>
+        <v>0.777779670588235</v>
       </c>
       <c r="M15" t="n">
-        <v>0.77116815</v>
+        <v>0.7683194</v>
       </c>
       <c r="N15" t="n">
         <v>41</v>
       </c>
       <c r="O15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="n">
-        <v>0.800276558823529</v>
+        <v>0.789826558823529</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.79557085</v>
+        <v>0.7739046</v>
       </c>
       <c r="R15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S15" t="n">
         <v>42</v>
       </c>
       <c r="T15" t="n">
-        <v>0.755319405882353</v>
+        <v>0.752032264705882</v>
       </c>
       <c r="U15" t="n">
-        <v>0.78039865</v>
+        <v>0.7816547</v>
       </c>
       <c r="V15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X15" t="n">
-        <v>0.577826624117647</v>
+        <v>0.562186590588235</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.709787</v>
+        <v>0.7002475</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>37.2</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="16">
@@ -2058,70 +2058,70 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.730194511764706</v>
+        <v>0.743908841176471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.71021435</v>
+        <v>0.7303299</v>
       </c>
       <c r="J16" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L16" t="n">
-        <v>0.787703411764706</v>
+        <v>0.785420952941176</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7777446</v>
+        <v>0.7707571</v>
       </c>
       <c r="N16" t="n">
         <v>39</v>
       </c>
       <c r="O16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P16" t="n">
-        <v>0.807988994117647</v>
+        <v>0.799654388235294</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8046153</v>
+        <v>0.7836846</v>
       </c>
       <c r="R16" t="n">
+        <v>39</v>
+      </c>
+      <c r="S16" t="n">
+        <v>41</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.759120717647059</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.7892574</v>
+      </c>
+      <c r="V16" t="n">
         <v>38</v>
       </c>
-      <c r="S16" t="n">
-        <v>39</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.763352617647059</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.79496715</v>
-      </c>
-      <c r="V16" t="n">
-        <v>35</v>
-      </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X16" t="n">
-        <v>0.595435644705882</v>
+        <v>0.578964518823529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.71117725</v>
+        <v>0.7035931</v>
       </c>
       <c r="Z16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB16" t="n">
-        <v>38.6</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2150,10 +2150,10 @@
         <v>0.670682070588235</v>
       </c>
       <c r="I17" t="n">
-        <v>0.61172415</v>
+        <v>0.5894801</v>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" t="n">
         <v>55</v>
@@ -2162,10 +2162,10 @@
         <v>0.749951864705882</v>
       </c>
       <c r="M17" t="n">
-        <v>0.70334465</v>
+        <v>0.6943995</v>
       </c>
       <c r="N17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17" t="n">
         <v>53</v>
@@ -2174,7 +2174,7 @@
         <v>0.781973358823529</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7514147</v>
+        <v>0.7475674</v>
       </c>
       <c r="R17" t="n">
         <v>43</v>
@@ -2186,7 +2186,7 @@
         <v>0.730338</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7272023</v>
+        <v>0.7263623</v>
       </c>
       <c r="V17" t="n">
         <v>46</v>
@@ -2198,19 +2198,19 @@
         <v>0.665893698823529</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.742613</v>
+        <v>0.7932671</v>
       </c>
       <c r="Z17" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="18">
@@ -2236,10 +2236,10 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.668735429411765</v>
+        <v>0.668205994117647</v>
       </c>
       <c r="I18" t="n">
-        <v>0.61949335</v>
+        <v>0.6172209</v>
       </c>
       <c r="J18" t="n">
         <v>55</v>
@@ -2248,10 +2248,10 @@
         <v>52</v>
       </c>
       <c r="L18" t="n">
-        <v>0.715377111764706</v>
+        <v>0.714714258823529</v>
       </c>
       <c r="M18" t="n">
-        <v>0.69444265</v>
+        <v>0.6862941</v>
       </c>
       <c r="N18" t="n">
         <v>55</v>
@@ -2260,46 +2260,46 @@
         <v>55</v>
       </c>
       <c r="P18" t="n">
-        <v>0.732532964705882</v>
+        <v>0.731844629411765</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7264336</v>
+        <v>0.7191609</v>
       </c>
       <c r="R18" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S18" t="n">
         <v>55</v>
       </c>
       <c r="T18" t="n">
-        <v>0.716057588235294</v>
+        <v>0.715464670588235</v>
       </c>
       <c r="U18" t="n">
-        <v>0.74661565</v>
+        <v>0.7629958</v>
       </c>
       <c r="V18" t="n">
         <v>52</v>
       </c>
       <c r="W18" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="X18" t="n">
-        <v>0.555754329411765</v>
+        <v>0.554643535294118</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6301021</v>
+        <v>0.6819342</v>
       </c>
       <c r="Z18" t="n">
         <v>47</v>
       </c>
       <c r="AA18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB18" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>51.2</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="19">
@@ -2325,70 +2325,70 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.671154694117647</v>
+        <v>0.670589505882353</v>
       </c>
       <c r="I19" t="n">
-        <v>0.62027615</v>
+        <v>0.6174686</v>
       </c>
       <c r="J19" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" t="n">
         <v>51</v>
       </c>
       <c r="L19" t="n">
-        <v>0.719810652941177</v>
+        <v>0.719105411764706</v>
       </c>
       <c r="M19" t="n">
-        <v>0.69734955</v>
+        <v>0.688161</v>
       </c>
       <c r="N19" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O19" t="n">
         <v>54</v>
       </c>
       <c r="P19" t="n">
-        <v>0.738299</v>
+        <v>0.737541941176471</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73109875</v>
+        <v>0.7227665</v>
       </c>
       <c r="R19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S19" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T19" t="n">
-        <v>0.719869458823529</v>
+        <v>0.719262864705882</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7413883</v>
+        <v>0.7504457</v>
       </c>
       <c r="V19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W19" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X19" t="n">
-        <v>0.580424934117647</v>
+        <v>0.57916331</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.66416935</v>
+        <v>0.6819584</v>
       </c>
       <c r="Z19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>50.6</v>
+        <v>49.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -2417,67 +2417,67 @@
         <v>0.757927264705882</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7639669</v>
+        <v>0.7700065</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L20" t="n">
         <v>0.839334794117647</v>
       </c>
       <c r="M20" t="n">
-        <v>0.84299435</v>
+        <v>0.8466539</v>
       </c>
       <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
         <v>16</v>
-      </c>
-      <c r="O20" t="n">
-        <v>18</v>
       </c>
       <c r="P20" t="n">
         <v>0.867486247058823</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8703678</v>
+        <v>0.8732494</v>
       </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T20" t="n">
         <v>0.771983005882353</v>
       </c>
       <c r="U20" t="n">
-        <v>0.761741</v>
+        <v>0.751499</v>
       </c>
       <c r="V20" t="n">
         <v>21</v>
       </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X20" t="n">
         <v>0.746107574705882</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8748911</v>
+        <v>0.8752985</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="21">
@@ -2503,34 +2503,34 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.693494676470588</v>
+        <v>0.704100394117647</v>
       </c>
       <c r="I21" t="n">
-        <v>0.67656495</v>
+        <v>0.6881119</v>
       </c>
       <c r="J21" t="n">
+        <v>45</v>
+      </c>
+      <c r="K21" t="n">
         <v>46</v>
       </c>
-      <c r="K21" t="n">
-        <v>47</v>
-      </c>
       <c r="L21" t="n">
-        <v>0.740140835294118</v>
+        <v>0.733826594117647</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7416389</v>
+        <v>0.7372109</v>
       </c>
       <c r="N21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" t="n">
-        <v>0.755900388235294</v>
+        <v>0.744661547058823</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7629901</v>
+        <v>0.7524829</v>
       </c>
       <c r="R21" t="n">
         <v>49</v>
@@ -2539,34 +2539,34 @@
         <v>44</v>
       </c>
       <c r="T21" t="n">
-        <v>0.721728394117647</v>
+        <v>0.717692288235294</v>
       </c>
       <c r="U21" t="n">
-        <v>0.7392178</v>
+        <v>0.738329</v>
       </c>
       <c r="V21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W21" t="n">
         <v>48</v>
       </c>
       <c r="X21" t="n">
-        <v>0.512126803529412</v>
+        <v>0.490557758235294</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.58265715</v>
+        <v>0.5868624</v>
       </c>
       <c r="Z21" t="n">
         <v>52</v>
       </c>
       <c r="AA21" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB21" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -2592,70 +2592,70 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.788479729411765</v>
+        <v>0.795722111764706</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7766199</v>
+        <v>0.7884772</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.845049147058824</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8372412</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.862778170588235</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8574395</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>31</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.7867408</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8384897</v>
+      </c>
+      <c r="V22" t="n">
         <v>14</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.848087458823529</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.84124525</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>20</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.869067870588235</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.86438125</v>
-      </c>
-      <c r="R22" t="n">
-        <v>8</v>
-      </c>
-      <c r="S22" t="n">
-        <v>23</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.794048341176471</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.83774055</v>
-      </c>
-      <c r="V22" t="n">
-        <v>11</v>
       </c>
       <c r="W22" t="n">
         <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>0.678977788235294</v>
+        <v>0.659226138235294</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8054954</v>
+        <v>0.8402514</v>
       </c>
       <c r="Z22" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="23">
@@ -2684,10 +2684,10 @@
         <v>0.782346158823529</v>
       </c>
       <c r="I23" t="n">
-        <v>0.78904015</v>
+        <v>0.7957341</v>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
@@ -2696,43 +2696,43 @@
         <v>0.852914041176471</v>
       </c>
       <c r="M23" t="n">
-        <v>0.85585265</v>
+        <v>0.8587913</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P23" t="n">
         <v>0.875952423529412</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8806707</v>
+        <v>0.8812833</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
         <v>0.796226429411765</v>
       </c>
       <c r="U23" t="n">
-        <v>0.785311</v>
+        <v>0.7743956</v>
       </c>
       <c r="V23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X23" t="n">
         <v>0.757306451764706</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8977878</v>
+        <v>0.9107875</v>
       </c>
       <c r="Z23" t="n">
         <v>5</v>
@@ -2741,10 +2741,10 @@
         <v>2</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="24">
@@ -2770,70 +2770,70 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.723158864705882</v>
+        <v>0.740477017647059</v>
       </c>
       <c r="I24" t="n">
-        <v>0.70143805</v>
+        <v>0.7149834</v>
       </c>
       <c r="J24" t="n">
+        <v>34</v>
+      </c>
+      <c r="K24" t="n">
+        <v>36</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.774293576470588</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7676456</v>
+      </c>
+      <c r="N24" t="n">
+        <v>42</v>
+      </c>
+      <c r="O24" t="n">
+        <v>42</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.785075135294118</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.7841019</v>
+      </c>
+      <c r="R24" t="n">
+        <v>42</v>
+      </c>
+      <c r="S24" t="n">
         <v>40</v>
       </c>
-      <c r="K24" t="n">
+      <c r="T24" t="n">
+        <v>0.736482476470588</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.7602084</v>
+      </c>
+      <c r="V24" t="n">
+        <v>43</v>
+      </c>
+      <c r="W24" t="n">
         <v>40</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.781615176470588</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.77859895</v>
-      </c>
-      <c r="N24" t="n">
-        <v>40</v>
-      </c>
-      <c r="O24" t="n">
-        <v>39</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.798444982352941</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.80021065</v>
-      </c>
-      <c r="R24" t="n">
-        <v>41</v>
-      </c>
-      <c r="S24" t="n">
-        <v>41</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.741421017647059</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.7736038</v>
-      </c>
-      <c r="V24" t="n">
-        <v>42</v>
-      </c>
-      <c r="W24" t="n">
-        <v>30</v>
-      </c>
       <c r="X24" t="n">
-        <v>0.543097489411765</v>
+        <v>0.522974081176471</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.652001</v>
+        <v>0.6955461</v>
       </c>
       <c r="Z24" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
         <v>45</v>
       </c>
       <c r="AB24" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>39</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="25">
@@ -2859,70 +2859,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.791609417647059</v>
+        <v>0.798838941176471</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7974681</v>
+        <v>0.8171158</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.848320311764706</v>
+        <v>0.845202429411765</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8429123</v>
+        <v>0.8412265</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>0.868675611764706</v>
+        <v>0.862341335294118</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8682642</v>
+        <v>0.8596889</v>
       </c>
       <c r="R25" t="n">
+        <v>17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.794470435294118</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8497158</v>
+      </c>
+      <c r="V25" t="n">
         <v>10</v>
-      </c>
-      <c r="S25" t="n">
-        <v>20</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.797718317647059</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.844537</v>
-      </c>
-      <c r="V25" t="n">
-        <v>6</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
       </c>
       <c r="X25" t="n">
-        <v>0.67702918</v>
+        <v>0.664319431764706</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8252097</v>
+        <v>0.8472718</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA25" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="26">
@@ -2951,67 +2951,67 @@
         <v>0.745882841176471</v>
       </c>
       <c r="I26" t="n">
-        <v>0.74328225</v>
+        <v>0.7406817</v>
       </c>
       <c r="J26" t="n">
         <v>28</v>
       </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26" t="n">
         <v>0.826209364705882</v>
       </c>
       <c r="M26" t="n">
-        <v>0.83996725</v>
+        <v>0.8409034</v>
       </c>
       <c r="N26" t="n">
         <v>23</v>
       </c>
       <c r="O26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
         <v>0.854938094117647</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.86575045</v>
+        <v>0.8668539</v>
       </c>
       <c r="R26" t="n">
         <v>21</v>
       </c>
       <c r="S26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T26" t="n">
         <v>0.760963364705882</v>
       </c>
       <c r="U26" t="n">
-        <v>0.76246245</v>
+        <v>0.7639615</v>
       </c>
       <c r="V26" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W26" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X26" t="n">
         <v>0.732327338823529</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8461234</v>
+        <v>0.8461235</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>25.4</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="27">
@@ -3037,70 +3037,70 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6931416</v>
+        <v>0.6928534</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6807728</v>
+        <v>0.6765564</v>
       </c>
       <c r="J27" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L27" t="n">
-        <v>0.724146294117647</v>
+        <v>0.723488911764706</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7146843</v>
+        <v>0.705748</v>
       </c>
       <c r="N27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O27" t="n">
         <v>50</v>
       </c>
       <c r="P27" t="n">
-        <v>0.734773194117647</v>
+        <v>0.734209988235294</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7310322</v>
+        <v>0.7275526</v>
       </c>
       <c r="R27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="n">
-        <v>0.708949617647059</v>
+        <v>0.708357676470588</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7253638</v>
+        <v>0.7285571</v>
       </c>
       <c r="V27" t="n">
         <v>53</v>
       </c>
       <c r="W27" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X27" t="n">
-        <v>0.473645464705882</v>
+        <v>0.472556152941176</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.52666505</v>
+        <v>0.5525834</v>
       </c>
       <c r="Z27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA27" t="n">
         <v>54</v>
       </c>
       <c r="AB27" t="n">
-        <v>52</v>
+        <v>51.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="28">
@@ -3126,70 +3126,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.731568294117647</v>
+        <v>0.7318219</v>
       </c>
       <c r="I28" t="n">
-        <v>0.69876185</v>
+        <v>0.6961773</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L28" t="n">
-        <v>0.791765229411765</v>
+        <v>0.791845570588235</v>
       </c>
       <c r="M28" t="n">
-        <v>0.77505105</v>
+        <v>0.7688449</v>
       </c>
       <c r="N28" t="n">
         <v>36</v>
       </c>
       <c r="O28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" t="n">
-        <v>0.815863435294118</v>
+        <v>0.815895394117647</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.80515475</v>
+        <v>0.7945023</v>
       </c>
       <c r="R28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S28" t="n">
+        <v>39</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.767722152941176</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7869599</v>
+      </c>
+      <c r="V28" t="n">
+        <v>25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>16</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.671436219411765</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.767627</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA28" t="n">
         <v>38</v>
       </c>
-      <c r="T28" t="n">
-        <v>0.767781352941176</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.77737065</v>
-      </c>
-      <c r="V28" t="n">
-        <v>28</v>
-      </c>
-      <c r="W28" t="n">
-        <v>23</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.67152629</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.76537255</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
         <v>35</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>35.6</v>
       </c>
     </row>
     <row r="29">
@@ -3218,67 +3218,67 @@
         <v>0.737503982352941</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7285875</v>
+        <v>0.7230666</v>
       </c>
       <c r="J29" t="n">
+        <v>38</v>
+      </c>
+      <c r="K29" t="n">
         <v>34</v>
-      </c>
-      <c r="K29" t="n">
-        <v>31</v>
       </c>
       <c r="L29" t="n">
         <v>0.8212219</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8339188</v>
+        <v>0.8388864</v>
       </c>
       <c r="N29" t="n">
         <v>28</v>
       </c>
       <c r="O29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P29" t="n">
         <v>0.853087447058824</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8706319</v>
+        <v>0.8769127</v>
       </c>
       <c r="R29" t="n">
         <v>23</v>
       </c>
       <c r="S29" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T29" t="n">
         <v>0.766160964705882</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7667195</v>
+        <v>0.767278</v>
       </c>
       <c r="V29" t="n">
         <v>33</v>
       </c>
       <c r="W29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X29" t="n">
         <v>0.744001765882353</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8703449</v>
+        <v>0.885917</v>
       </c>
       <c r="Z29" t="n">
         <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="30">
@@ -3304,46 +3304,46 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.682108476470588</v>
+        <v>0.692922747058824</v>
       </c>
       <c r="I30" t="n">
-        <v>0.66437355</v>
+        <v>0.6814105</v>
       </c>
       <c r="J30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" t="n">
-        <v>0.724708152941177</v>
+        <v>0.718958388235294</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7233097</v>
+        <v>0.721908</v>
       </c>
       <c r="N30" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P30" t="n">
-        <v>0.738705317647059</v>
+        <v>0.727848988235294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7390235</v>
+        <v>0.7348583</v>
       </c>
       <c r="R30" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S30" t="n">
         <v>52</v>
       </c>
       <c r="T30" t="n">
-        <v>0.706799852941176</v>
+        <v>0.702021017647059</v>
       </c>
       <c r="U30" t="n">
-        <v>0.72830065</v>
+        <v>0.7339447</v>
       </c>
       <c r="V30" t="n">
         <v>54</v>
@@ -3352,22 +3352,22 @@
         <v>50</v>
       </c>
       <c r="X30" t="n">
-        <v>0.479507476470588</v>
+        <v>0.459195723529412</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.59489515</v>
+        <v>0.6122173</v>
       </c>
       <c r="Z30" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA30" t="n">
         <v>51</v>
       </c>
       <c r="AB30" t="n">
-        <v>51.6</v>
+        <v>52.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="31">
@@ -3393,70 +3393,70 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.719601847058824</v>
+        <v>0.726292923529412</v>
       </c>
       <c r="I31" t="n">
-        <v>0.69104835</v>
+        <v>0.6895539</v>
       </c>
       <c r="J31" t="n">
         <v>42</v>
       </c>
       <c r="K31" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L31" t="n">
-        <v>0.791620282352941</v>
+        <v>0.789205882352941</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7789599</v>
+        <v>0.7700162</v>
       </c>
       <c r="N31" t="n">
         <v>37</v>
       </c>
       <c r="O31" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" t="n">
-        <v>0.818435111764706</v>
+        <v>0.812743005882353</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.81299565</v>
+        <v>0.8035535</v>
       </c>
       <c r="R31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T31" t="n">
-        <v>0.762848911764706</v>
+        <v>0.758344252941176</v>
       </c>
       <c r="U31" t="n">
-        <v>0.77984785</v>
+        <v>0.7786188</v>
       </c>
       <c r="V31" t="n">
+        <v>39</v>
+      </c>
+      <c r="W31" t="n">
+        <v>26</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.654038302941176</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.7550788</v>
+      </c>
+      <c r="Z31" t="n">
         <v>37</v>
       </c>
-      <c r="W31" t="n">
-        <v>22</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.667393524117647</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.72510985</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>36</v>
-      </c>
       <c r="AA31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="n">
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>35.8</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="32">
@@ -3485,19 +3485,19 @@
         <v>0.760780294117647</v>
       </c>
       <c r="I32" t="n">
-        <v>0.76404745</v>
+        <v>0.7673146</v>
       </c>
       <c r="J32" t="n">
+        <v>22</v>
+      </c>
+      <c r="K32" t="n">
         <v>21</v>
-      </c>
-      <c r="K32" t="n">
-        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>0.840358270588235</v>
       </c>
       <c r="M32" t="n">
-        <v>0.84666455</v>
+        <v>0.8497129</v>
       </c>
       <c r="N32" t="n">
         <v>13</v>
@@ -3509,43 +3509,43 @@
         <v>0.8686026</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.87781435</v>
+        <v>0.8845018</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T32" t="n">
         <v>0.766683211764706</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7687299</v>
+        <v>0.7707766</v>
       </c>
       <c r="V32" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W32" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X32" t="n">
         <v>0.755644582352941</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.8843734</v>
+        <v>0.8961119</v>
       </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -3571,10 +3571,10 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.681078182352941</v>
+        <v>0.692009170588235</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6609481</v>
+        <v>0.6748617</v>
       </c>
       <c r="J33" t="n">
         <v>50</v>
@@ -3583,34 +3583,34 @@
         <v>50</v>
       </c>
       <c r="L33" t="n">
-        <v>0.723886029411765</v>
+        <v>0.716150782352941</v>
       </c>
       <c r="M33" t="n">
-        <v>0.72538845</v>
+        <v>0.7208772</v>
       </c>
       <c r="N33" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O33" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" t="n">
-        <v>0.737950876470588</v>
+        <v>0.723502464705882</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7429081</v>
+        <v>0.7362916</v>
       </c>
       <c r="R33" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" t="n">
         <v>51</v>
       </c>
       <c r="T33" t="n">
-        <v>0.700462629411765</v>
+        <v>0.692930982352941</v>
       </c>
       <c r="U33" t="n">
-        <v>0.7179727</v>
+        <v>0.7092189</v>
       </c>
       <c r="V33" t="n">
         <v>55</v>
@@ -3619,10 +3619,10 @@
         <v>55</v>
       </c>
       <c r="X33" t="n">
-        <v>0.462011211764706</v>
+        <v>0.4345337</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.5195157</v>
+        <v>0.539633</v>
       </c>
       <c r="Z33" t="n">
         <v>55</v>
@@ -3631,10 +3631,10 @@
         <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -3660,34 +3660,34 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7516033</v>
+        <v>0.764361276470588</v>
       </c>
       <c r="I34" t="n">
-        <v>0.72683345</v>
+        <v>0.7426543</v>
       </c>
       <c r="J34" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K34" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.815594176470588</v>
+        <v>0.813119358823529</v>
       </c>
       <c r="M34" t="n">
-        <v>0.80936005</v>
+        <v>0.8163885</v>
       </c>
       <c r="N34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" t="n">
-        <v>0.838441270588235</v>
+        <v>0.830237558823529</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.83180245</v>
+        <v>0.8317821</v>
       </c>
       <c r="R34" t="n">
         <v>35</v>
@@ -3696,34 +3696,34 @@
         <v>35</v>
       </c>
       <c r="T34" t="n">
-        <v>0.770646476470588</v>
+        <v>0.766929282352941</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8289773</v>
+        <v>0.8238885</v>
       </c>
       <c r="V34" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X34" t="n">
-        <v>0.626641503529412</v>
+        <v>0.613363920588235</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.72669095</v>
+        <v>0.7494299</v>
       </c>
       <c r="Z34" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>29.6</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="35">
@@ -3749,22 +3749,22 @@
         <v>35</v>
       </c>
       <c r="H35" t="n">
-        <v>0.795356241176471</v>
+        <v>0.796027141176471</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7993415</v>
+        <v>0.8054482</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8505857</v>
+        <v>0.8495087</v>
       </c>
       <c r="M35" t="n">
-        <v>0.85535525</v>
+        <v>0.8593315</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -3773,22 +3773,22 @@
         <v>6</v>
       </c>
       <c r="P35" t="n">
-        <v>0.870407876470588</v>
+        <v>0.868115094117647</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.87419305</v>
+        <v>0.8763206</v>
       </c>
       <c r="R35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T35" t="n">
-        <v>0.813830035294118</v>
+        <v>0.814117088235294</v>
       </c>
       <c r="U35" t="n">
-        <v>0.85225715</v>
+        <v>0.8660613</v>
       </c>
       <c r="V35" t="n">
         <v>3</v>
@@ -3797,22 +3797,22 @@
         <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>0.726343876470588</v>
+        <v>0.723412521764706</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.8378651</v>
+        <v>0.8397046</v>
       </c>
       <c r="Z35" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="36">
@@ -3838,70 +3838,70 @@
         <v>44</v>
       </c>
       <c r="H36" t="n">
-        <v>0.757890852941176</v>
+        <v>0.757860282352941</v>
       </c>
       <c r="I36" t="n">
-        <v>0.745901</v>
+        <v>0.7367461</v>
       </c>
       <c r="J36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L36" t="n">
-        <v>0.823726347058824</v>
+        <v>0.823708788235294</v>
       </c>
       <c r="M36" t="n">
-        <v>0.828309</v>
+        <v>0.8328917</v>
       </c>
       <c r="N36" t="n">
         <v>27</v>
       </c>
       <c r="O36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P36" t="n">
-        <v>0.850375488235294</v>
+        <v>0.849852835294118</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8601787</v>
+        <v>0.8699819</v>
       </c>
       <c r="R36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T36" t="n">
         <v>0.7665994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.77570825</v>
+        <v>0.7848171</v>
       </c>
       <c r="V36" t="n">
         <v>32</v>
       </c>
       <c r="W36" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
         <v>0.718064485882353</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.84040485</v>
+        <v>0.8432182</v>
       </c>
       <c r="Z36" t="n">
         <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB36" t="n">
         <v>28</v>
       </c>
       <c r="AC36" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="37">
@@ -3927,70 +3927,70 @@
         <v>49</v>
       </c>
       <c r="H37" t="n">
-        <v>0.777268152941176</v>
+        <v>0.777279535294118</v>
       </c>
       <c r="I37" t="n">
-        <v>0.77514285</v>
+        <v>0.7748783</v>
       </c>
       <c r="J37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>0.837784111764706</v>
+        <v>0.837790388235294</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8521377</v>
+        <v>0.8664133</v>
       </c>
       <c r="N37" t="n">
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>0.861978488235294</v>
+        <v>0.861983158823529</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8788284</v>
+        <v>0.8956263</v>
       </c>
       <c r="R37" t="n">
         <v>18</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
         <v>0.788834658823529</v>
       </c>
       <c r="U37" t="n">
-        <v>0.80288595</v>
+        <v>0.8159925</v>
       </c>
       <c r="V37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>0.726034174117647</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.84989565</v>
+        <v>0.8619889</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB37" t="n">
         <v>17.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="38">
@@ -4016,67 +4016,67 @@
         <v>54</v>
       </c>
       <c r="H38" t="n">
-        <v>0.755123011764706</v>
+        <v>0.756110552941176</v>
       </c>
       <c r="I38" t="n">
-        <v>0.76017825</v>
+        <v>0.7659853</v>
       </c>
       <c r="J38" t="n">
         <v>26</v>
       </c>
       <c r="K38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" t="n">
-        <v>0.824644176470588</v>
+        <v>0.823724982352941</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8287519</v>
+        <v>0.8327587</v>
       </c>
       <c r="N38" t="n">
         <v>26</v>
       </c>
       <c r="O38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>0.852762494117647</v>
+        <v>0.851030976470588</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8581885</v>
+        <v>0.8629959</v>
       </c>
       <c r="R38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S38" t="n">
         <v>28</v>
       </c>
       <c r="T38" t="n">
-        <v>0.773202523529412</v>
+        <v>0.773105217647059</v>
       </c>
       <c r="U38" t="n">
-        <v>0.76634185</v>
+        <v>0.7551918</v>
       </c>
       <c r="V38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W38" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X38" t="n">
-        <v>0.733037747647059</v>
+        <v>0.730954971764706</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.82413755</v>
+        <v>0.8463231</v>
       </c>
       <c r="Z38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="AC38" t="n">
         <v>29.4</v>
@@ -4105,70 +4105,70 @@
         <v>59</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7822205</v>
+        <v>0.782772664705882</v>
       </c>
       <c r="I39" t="n">
-        <v>0.78505505</v>
+        <v>0.7886283</v>
       </c>
       <c r="J39" t="n">
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.844686541176471</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8502091</v>
+      </c>
+      <c r="N39" t="n">
         <v>12</v>
       </c>
-      <c r="K39" t="n">
-        <v>8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.845974952941177</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8481739</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11</v>
-      </c>
       <c r="O39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P39" t="n">
-        <v>0.868065247058823</v>
+        <v>0.866111876470588</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.87268575</v>
+        <v>0.8764877</v>
       </c>
       <c r="R39" t="n">
         <v>12</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T39" t="n">
-        <v>0.796342794117647</v>
+        <v>0.796043352941176</v>
       </c>
       <c r="U39" t="n">
-        <v>0.78662755</v>
+        <v>0.7811535</v>
       </c>
       <c r="V39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W39" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
-        <v>0.742542168823529</v>
+        <v>0.740175452352941</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.8422727</v>
+        <v>0.8553768</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="40">
@@ -4194,10 +4194,10 @@
         <v>64</v>
       </c>
       <c r="H40" t="n">
-        <v>0.680580470588235</v>
+        <v>0.680544088235294</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6188921</v>
+        <v>0.6150923</v>
       </c>
       <c r="J40" t="n">
         <v>51</v>
@@ -4206,55 +4206,55 @@
         <v>53</v>
       </c>
       <c r="L40" t="n">
-        <v>0.748644876470588</v>
+        <v>0.748641776470588</v>
       </c>
       <c r="M40" t="n">
-        <v>0.70445265</v>
+        <v>0.7025212</v>
       </c>
       <c r="N40" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O40" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
-        <v>0.776583211764706</v>
+        <v>0.776560594117647</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7505979</v>
+        <v>0.7461102</v>
       </c>
       <c r="R40" t="n">
         <v>45</v>
       </c>
       <c r="S40" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T40" t="n">
-        <v>0.728827311764706</v>
+        <v>0.728857141176471</v>
       </c>
       <c r="U40" t="n">
-        <v>0.7271682</v>
+        <v>0.7254918</v>
       </c>
       <c r="V40" t="n">
         <v>48</v>
       </c>
       <c r="W40" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X40" t="n">
-        <v>0.676466167058824</v>
+        <v>0.676483114117647</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.74223995</v>
+        <v>0.7925721</v>
       </c>
       <c r="Z40" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA40" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB40" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="AC40" t="n">
         <v>49</v>
@@ -4283,70 +4283,70 @@
         <v>69</v>
       </c>
       <c r="H41" t="n">
-        <v>0.785364341176471</v>
+        <v>0.786159788235294</v>
       </c>
       <c r="I41" t="n">
-        <v>0.78055905</v>
+        <v>0.7763324</v>
       </c>
       <c r="J41" t="n">
         <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.852137094117647</v>
+        <v>0.850608876470588</v>
       </c>
       <c r="M41" t="n">
-        <v>0.84594875</v>
+        <v>0.8392703</v>
       </c>
       <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>19</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8748358</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.8690293</v>
+      </c>
+      <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="O41" t="n">
-        <v>16</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.877590652941176</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.8733511</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
       <c r="S41" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="T41" t="n">
-        <v>0.779295547058824</v>
+        <v>0.777875229411765</v>
       </c>
       <c r="U41" t="n">
-        <v>0.7755895</v>
+        <v>0.768467</v>
       </c>
       <c r="V41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W41" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="X41" t="n">
-        <v>0.756211984117647</v>
+        <v>0.752146917058824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8871315</v>
+        <v>0.8985916</v>
       </c>
       <c r="Z41" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
         <v>4</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.6</v>
+        <v>8.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>14.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="42">
@@ -4372,70 +4372,70 @@
         <v>74</v>
       </c>
       <c r="H42" t="n">
-        <v>0.789645629411765</v>
+        <v>0.790629229411765</v>
       </c>
       <c r="I42" t="n">
-        <v>0.787556</v>
+        <v>0.7860841</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>0.854989641176471</v>
+        <v>0.853798358823529</v>
       </c>
       <c r="M42" t="n">
-        <v>0.85553475</v>
+        <v>0.8553764</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
       </c>
       <c r="O42" t="n">
+        <v>11</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.876831747058823</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.8754372</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.798453829411765</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.7881054</v>
+      </c>
+      <c r="V42" t="n">
         <v>5</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.879496194117647</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.87796125</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>8</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.799885635294118</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.79203445</v>
-      </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
+        <v>15</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.759326395882353</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9189325</v>
+      </c>
+      <c r="Z42" t="n">
         <v>4</v>
-      </c>
-      <c r="W42" t="n">
-        <v>13</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.763869990588235</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.90292025</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>3</v>
       </c>
       <c r="AA42" t="n">
         <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="43">
@@ -4461,67 +4461,67 @@
         <v>79</v>
       </c>
       <c r="H43" t="n">
-        <v>0.742181841176471</v>
+        <v>0.742143435294118</v>
       </c>
       <c r="I43" t="n">
-        <v>0.72865085</v>
+        <v>0.7151199</v>
       </c>
       <c r="J43" t="n">
+        <v>33</v>
+      </c>
+      <c r="K43" t="n">
+        <v>35</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.813799129411765</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8199636</v>
+      </c>
+      <c r="N43" t="n">
+        <v>34</v>
+      </c>
+      <c r="O43" t="n">
         <v>32</v>
       </c>
-      <c r="K43" t="n">
+      <c r="P43" t="n">
+        <v>0.844228552941176</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.8659441</v>
+      </c>
+      <c r="R43" t="n">
+        <v>33</v>
+      </c>
+      <c r="S43" t="n">
+        <v>26</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.761920623529412</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.764475</v>
+      </c>
+      <c r="V43" t="n">
+        <v>36</v>
+      </c>
+      <c r="W43" t="n">
+        <v>36</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.741557077058824</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.8464447</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB43" t="n">
         <v>30</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.813819952941176</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.81697795</v>
-      </c>
-      <c r="N43" t="n">
-        <v>35</v>
-      </c>
-      <c r="O43" t="n">
-        <v>33</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.844242958823529</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.85520225</v>
-      </c>
-      <c r="R43" t="n">
-        <v>34</v>
-      </c>
-      <c r="S43" t="n">
-        <v>31</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.761920094117647</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.76315605</v>
-      </c>
-      <c r="V43" t="n">
-        <v>38</v>
-      </c>
-      <c r="W43" t="n">
-        <v>40</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.741555065294118</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.84354905</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>30.8</v>
       </c>
       <c r="AC43" t="n">
         <v>30.6</v>
@@ -4550,70 +4550,70 @@
         <v>84</v>
       </c>
       <c r="H44" t="n">
-        <v>0.744858882352941</v>
+        <v>0.745609905882353</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7188121</v>
+        <v>0.7138972</v>
       </c>
       <c r="J44" t="n">
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L44" t="n">
-        <v>0.820186435294118</v>
+        <v>0.818907917647059</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8163703</v>
+        <v>0.8085417</v>
       </c>
       <c r="N44" t="n">
         <v>31</v>
       </c>
       <c r="O44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P44" t="n">
-        <v>0.849777352941177</v>
+        <v>0.847550876470588</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.85081845</v>
+        <v>0.8451116</v>
       </c>
       <c r="R44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S44" t="n">
         <v>34</v>
       </c>
       <c r="T44" t="n">
-        <v>0.768584123529412</v>
+        <v>0.7666792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.77225075</v>
+        <v>0.7728739</v>
       </c>
       <c r="V44" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W44" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X44" t="n">
-        <v>0.752945171764706</v>
+        <v>0.749092443529412</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.85124835</v>
+        <v>0.8508791</v>
       </c>
       <c r="Z44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="n">
-        <v>25</v>
+        <v>26.2</v>
       </c>
       <c r="AC44" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4639,70 +4639,70 @@
         <v>89</v>
       </c>
       <c r="H45" t="n">
-        <v>0.777746411764706</v>
+        <v>0.778957229411765</v>
       </c>
       <c r="I45" t="n">
-        <v>0.76860065</v>
+        <v>0.7710137</v>
       </c>
       <c r="J45" t="n">
         <v>15</v>
       </c>
       <c r="K45" t="n">
+        <v>19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.838613082352941</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8617606</v>
+      </c>
+      <c r="N45" t="n">
         <v>17</v>
       </c>
-      <c r="L45" t="n">
-        <v>0.839420788235294</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.8503207</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8641996</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.8900287</v>
+      </c>
+      <c r="R45" t="n">
+        <v>14</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.767672317647059</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7800543</v>
+      </c>
+      <c r="V45" t="n">
+        <v>26</v>
+      </c>
+      <c r="W45" t="n">
+        <v>25</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.759783601176471</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.8942321</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
         <v>15</v>
       </c>
-      <c r="O45" t="n">
-        <v>11</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.866900829411765</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.87827035</v>
-      </c>
-      <c r="R45" t="n">
-        <v>15</v>
-      </c>
-      <c r="S45" t="n">
-        <v>7</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.770635735294118</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.77716935</v>
-      </c>
-      <c r="V45" t="n">
-        <v>25</v>
-      </c>
-      <c r="W45" t="n">
-        <v>24</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.764800475294118</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.885189</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>14.2</v>
-      </c>
       <c r="AC45" t="n">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="46">
@@ -4731,43 +4731,43 @@
         <v>0.794381947058823</v>
       </c>
       <c r="I46" t="n">
-        <v>0.79991505</v>
+        <v>0.8054482</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>0.851090229411765</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8557714</v>
+        <v>0.8604526</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P46" t="n">
         <v>0.870993382352941</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8747838</v>
+        <v>0.8785742</v>
       </c>
       <c r="R46" t="n">
         <v>6</v>
       </c>
       <c r="S46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T46" t="n">
         <v>0.814368482352941</v>
       </c>
       <c r="U46" t="n">
-        <v>0.85376675</v>
+        <v>0.8668979</v>
       </c>
       <c r="V46" t="n">
         <v>2</v>
@@ -4779,19 +4779,19 @@
         <v>0.726473020588235</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.83860245</v>
+        <v>0.8394909</v>
       </c>
       <c r="Z46" t="n">
         <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="47">
@@ -4820,19 +4820,19 @@
         <v>0.758768252941176</v>
       </c>
       <c r="I47" t="n">
-        <v>0.74575905</v>
+        <v>0.7327498</v>
       </c>
       <c r="J47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L47" t="n">
         <v>0.825024370588235</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8300791</v>
+        <v>0.8339854</v>
       </c>
       <c r="N47" t="n">
         <v>25</v>
@@ -4844,43 +4844,43 @@
         <v>0.851753776470588</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.86150665</v>
+        <v>0.8712595</v>
       </c>
       <c r="R47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S47" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T47" t="n">
         <v>0.767487741176471</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7760472</v>
+        <v>0.7846067</v>
       </c>
       <c r="V47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="X47" t="n">
         <v>0.719433564705882</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8415371</v>
+        <v>0.8454827</v>
       </c>
       <c r="Z47" t="n">
         <v>28</v>
       </c>
       <c r="AA47" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="48">
@@ -4909,67 +4909,67 @@
         <v>0.778217864705882</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7776909</v>
+        <v>0.7771639</v>
       </c>
       <c r="J48" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
         <v>0.838751147058823</v>
       </c>
       <c r="M48" t="n">
-        <v>0.85430055</v>
+        <v>0.8676217</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0.863039229411765</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.87940845</v>
+        <v>0.8957777</v>
       </c>
       <c r="R48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0.788932158823529</v>
       </c>
       <c r="U48" t="n">
-        <v>0.80394285</v>
+        <v>0.8158263</v>
       </c>
       <c r="V48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X48" t="n">
         <v>0.725688458235294</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.85025215</v>
+        <v>0.8627019</v>
       </c>
       <c r="Z48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4998,67 +4998,67 @@
         <v>0.755467835294118</v>
       </c>
       <c r="I49" t="n">
-        <v>0.76073765</v>
+        <v>0.7660075</v>
       </c>
       <c r="J49" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" t="n">
         <v>0.825626988235294</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8301769</v>
+        <v>0.8347268</v>
       </c>
       <c r="N49" t="n">
         <v>24</v>
       </c>
       <c r="O49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P49" t="n">
         <v>0.854239664705882</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.85986915</v>
+        <v>0.8654986</v>
       </c>
       <c r="R49" t="n">
         <v>22</v>
       </c>
       <c r="S49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T49" t="n">
         <v>0.773075558823529</v>
       </c>
       <c r="U49" t="n">
-        <v>0.76548535</v>
+        <v>0.7578951</v>
       </c>
       <c r="V49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W49" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X49" t="n">
         <v>0.731865169411765</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.82612455</v>
+        <v>0.8493061</v>
       </c>
       <c r="Z49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA49" t="n">
         <v>20</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>29</v>
       </c>
       <c r="AB49" t="n">
         <v>22.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="50">
@@ -5087,67 +5087,67 @@
         <v>0.782498652941176</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7837798</v>
+        <v>0.7850609</v>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
         <v>0.846652182352941</v>
       </c>
       <c r="M50" t="n">
-        <v>0.84888315</v>
+        <v>0.8511141</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P50" t="n">
         <v>0.868998352941176</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.87361405</v>
+        <v>0.8782297</v>
       </c>
       <c r="R50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T50" t="n">
         <v>0.796047611764706</v>
       </c>
       <c r="U50" t="n">
-        <v>0.7870019</v>
+        <v>0.7779562</v>
       </c>
       <c r="V50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W50" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="X50" t="n">
         <v>0.742232935294118</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.84325055</v>
+        <v>0.856293</v>
       </c>
       <c r="Z50" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA50" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="51">
@@ -5176,7 +5176,7 @@
         <v>0.680144</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6135413</v>
+        <v>0.6131186</v>
       </c>
       <c r="J51" t="n">
         <v>52</v>
@@ -5188,55 +5188,55 @@
         <v>0.748966423529412</v>
       </c>
       <c r="M51" t="n">
-        <v>0.70405785</v>
+        <v>0.7026047</v>
       </c>
       <c r="N51" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O51" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P51" t="n">
         <v>0.777746558823529</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7509618</v>
+        <v>0.7460821</v>
       </c>
       <c r="R51" t="n">
         <v>44</v>
       </c>
       <c r="S51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T51" t="n">
         <v>0.729246217647059</v>
       </c>
       <c r="U51" t="n">
-        <v>0.72746725</v>
+        <v>0.7256883</v>
       </c>
       <c r="V51" t="n">
         <v>47</v>
       </c>
       <c r="W51" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X51" t="n">
         <v>0.675363075882353</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.7423961</v>
+        <v>0.792632</v>
       </c>
       <c r="Z51" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA51" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB51" t="n">
-        <v>44.6</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="n">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="52">
@@ -5265,67 +5265,67 @@
         <v>0.784494847058824</v>
       </c>
       <c r="I52" t="n">
-        <v>0.78140665</v>
+        <v>0.7783185</v>
       </c>
       <c r="J52" t="n">
         <v>9</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L52" t="n">
         <v>0.852719676470588</v>
       </c>
       <c r="M52" t="n">
-        <v>0.84573745</v>
+        <v>0.8387552</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
       </c>
       <c r="O52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P52" t="n">
         <v>0.878377911764706</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.87226615</v>
+        <v>0.8661544</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T52" t="n">
         <v>0.779172317647059</v>
       </c>
       <c r="U52" t="n">
-        <v>0.77485915</v>
+        <v>0.770546</v>
       </c>
       <c r="V52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W52" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X52" t="n">
         <v>0.754839901764706</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.8812576</v>
+        <v>0.8875</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
         <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -5354,67 +5354,67 @@
         <v>0.789956435294118</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7883417</v>
+        <v>0.786727</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L53" t="n">
         <v>0.855634288235294</v>
       </c>
       <c r="M53" t="n">
-        <v>0.85587885</v>
+        <v>0.8561234</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P53" t="n">
         <v>0.880327594117647</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8786121</v>
+        <v>0.8768966</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T53" t="n">
         <v>0.799848382352941</v>
       </c>
       <c r="U53" t="n">
-        <v>0.79137815</v>
+        <v>0.7829079</v>
       </c>
       <c r="V53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W53" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="X53" t="n">
         <v>0.762503342352941</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.8924186</v>
+        <v>0.8997882</v>
       </c>
       <c r="Z53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA53" t="n">
         <v>3</v>
       </c>
       <c r="AB53" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -5443,67 +5443,67 @@
         <v>0.742309005882353</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7280953</v>
+        <v>0.7138816</v>
       </c>
       <c r="J54" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K54" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L54" t="n">
         <v>0.815173323529412</v>
       </c>
       <c r="M54" t="n">
-        <v>0.81837745</v>
+        <v>0.8215816</v>
       </c>
       <c r="N54" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O54" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P54" t="n">
         <v>0.845829194117647</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.85697245</v>
+        <v>0.8681157</v>
       </c>
       <c r="R54" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S54" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="T54" t="n">
         <v>0.763424641176471</v>
       </c>
       <c r="U54" t="n">
-        <v>0.76399135</v>
+        <v>0.7645581</v>
       </c>
       <c r="V54" t="n">
         <v>34</v>
       </c>
       <c r="W54" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="X54" t="n">
         <v>0.741551588823529</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.8442302</v>
+        <v>0.8465089</v>
       </c>
       <c r="Z54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB54" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="AC54" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="55">
@@ -5532,67 +5532,67 @@
         <v>0.744299764705882</v>
       </c>
       <c r="I55" t="n">
-        <v>0.72055815</v>
+        <v>0.7121651</v>
       </c>
       <c r="J55" t="n">
         <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L55" t="n">
         <v>0.820957494117647</v>
       </c>
       <c r="M55" t="n">
-        <v>0.819752</v>
+        <v>0.8185465</v>
       </c>
       <c r="N55" t="n">
         <v>30</v>
       </c>
       <c r="O55" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P55" t="n">
         <v>0.8511751</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8544716</v>
+        <v>0.8577681</v>
       </c>
       <c r="R55" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T55" t="n">
         <v>0.769260547058824</v>
       </c>
       <c r="U55" t="n">
-        <v>0.7722852</v>
+        <v>0.7753099</v>
       </c>
       <c r="V55" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W55" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X55" t="n">
         <v>0.752234339411765</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.85811765</v>
+        <v>0.8629489</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB55" t="n">
-        <v>24.6</v>
+        <v>23.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="56">
@@ -5621,67 +5621,67 @@
         <v>0.778677347058824</v>
       </c>
       <c r="I56" t="n">
-        <v>0.76807335</v>
+        <v>0.7574694</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L56" t="n">
         <v>0.839915776470588</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8527866</v>
+        <v>0.8656574</v>
       </c>
       <c r="N56" t="n">
         <v>14</v>
       </c>
       <c r="O56" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P56" t="n">
         <v>0.867241229411765</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8793543</v>
+        <v>0.8914674</v>
       </c>
       <c r="R56" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
         <v>0.770936811764706</v>
       </c>
       <c r="U56" t="n">
-        <v>0.77699445</v>
+        <v>0.7830521</v>
       </c>
       <c r="V56" t="n">
         <v>23</v>
       </c>
       <c r="W56" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
         <v>0.763874268235294</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.88488905</v>
+        <v>0.8970891</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB56" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
